--- a/sample_data/metadata.xlsx
+++ b/sample_data/metadata.xlsx
@@ -1,63 +1,492 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="11560" activeTab="1"/>
+  </bookViews>
   <sheets>
     <sheet name="pipeline" sheetId="1" r:id="rId1"/>
     <sheet name="tasks" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>test pipeline2</t>
+  </si>
+  <si>
+    <t>task_type</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>upstream_task_uuids</t>
+  </si>
+  <si>
+    <t>config_type</t>
+  </si>
+  <si>
+    <t>config_properties</t>
+  </si>
+  <si>
+    <t>file_load1</t>
+  </si>
+  <si>
+    <t>data_loader</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>{
+                "file_type": "csv",
+                "file_name": "/Users/kumar/Documents/workbook/minimal-ai/sample_data/bankloan2.csv"
+            }</t>
+  </si>
+  <si>
+    <t>file_load2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>{
+                "file_type": "csv",
+                "file_name": "/Users/kumar/Documents/workbook/minimal-ai/sample_data/bankloan1.csv"
+            }</t>
+  </si>
+  <si>
+    <t>join_data</t>
+  </si>
+  <si>
+    <t>data_transformer</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>file_load1,file_load2</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>{
+                "left_table": "file_load1",
+                "right_table": "file_load2",
+                "on": [
+                    "ID"
+                ],
+                "how": "inner"
+            }</t>
+  </si>
+  <si>
+    <t>filter_data</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>sparkAI</t>
+  </si>
+  <si>
+    <t>{
+                "prompt": "sum of Age grouped on Occupation"
+            }</t>
+  </si>
+  <si>
+    <t>file_dump</t>
+  </si>
+  <si>
+    <t>data_sink</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>{
+                "file_type": "csv",
+                "file_name": "/Users/kumar/Documents/workbook/minimal-ai/sample_data/spark_ai_test.csv"
+            }</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -65,18 +494,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,197 +1122,169 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>executor_type</v>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>test pipeline</v>
-      </c>
-      <c r="B2" t="str">
-        <v>python</v>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError sqref="A1:A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>task_type</v>
-      </c>
-      <c r="C1" t="str">
-        <v>priority</v>
-      </c>
-      <c r="D1" t="str">
-        <v>upstream_task_uuids</v>
-      </c>
-      <c r="E1" t="str">
-        <v>config_type</v>
-      </c>
-      <c r="F1" t="str">
-        <v>config_properties</v>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
-        <v>db_load</v>
-      </c>
-      <c r="B2" t="str">
-        <v>data_loader</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>db</v>
-      </c>
-      <c r="F2" t="str" xml:space="preserve">
-        <v xml:space="preserve">{
-                "db_type": "mysql",
-                "host": "127.0.0.1",
-                "port": "3306",
-                "user": "root",
-                "password": "password",
-                "database": "test",
-                "table": "bankloan1",
-                "ingestion_type": null
-            }</v>
+    <row r="2" ht="282" spans="1:6">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>file_load</v>
-      </c>
-      <c r="B3" t="str">
-        <v>data_loader</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2</v>
-      </c>
-      <c r="E3" t="str">
-        <v>file</v>
-      </c>
-      <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">{
-                "file_type": "csv",
-                "file_name": "bankloan2.csv"
-            }</v>
+    <row r="3" ht="282" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
-        <v>join_data</v>
-      </c>
-      <c r="B4" t="str">
-        <v>data_transformer</v>
-      </c>
-      <c r="C4" t="str">
-        <v>3</v>
-      </c>
-      <c r="D4" t="str">
-        <v>db_load,file_load</v>
-      </c>
-      <c r="E4" t="str">
-        <v>join</v>
-      </c>
-      <c r="F4" t="str" xml:space="preserve">
-        <v xml:space="preserve">{
-                "left_table": "db_load",
-                "right_table": "file_load",
-                "left_on": [
-                    "ID"
-                ],
-                "right_on": [
-                    "ID"
-                ],
-                "how": "inner"
-            }</v>
+    <row r="4" ht="311" spans="1:6">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>filter_data</v>
-      </c>
-      <c r="B5" t="str">
-        <v>data_transformer</v>
-      </c>
-      <c r="C5" t="str">
-        <v>4</v>
-      </c>
-      <c r="D5" t="str">
-        <v>join_data</v>
-      </c>
-      <c r="E5" t="str">
-        <v>filter</v>
-      </c>
-      <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">{
-                "where": "Age &gt; 40 and Occupation = 'industrial'"
-            }</v>
+    <row r="5" ht="148" spans="1:6">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>dump_data</v>
-      </c>
-      <c r="B6" t="str">
-        <v>data_sink</v>
-      </c>
-      <c r="C6" t="str">
-        <v>5</v>
-      </c>
-      <c r="D6" t="str">
-        <v>filter_data</v>
-      </c>
-      <c r="E6" t="str">
-        <v>db</v>
-      </c>
-      <c r="F6" t="str" xml:space="preserve">
-        <v xml:space="preserve">{
-                "db_type": "mysql",
-                "host": "127.0.0.1",
-                "port": "3306",
-                "user": "root",
-                "password": "password",
-                "database": "test",
-                "table": "joined_data",
-                "ingestion_type": "overwrite"
-            }</v>
+    <row r="6" ht="282" spans="1:6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError sqref="B3:E3 A4:C4 E4 A5:C5 B6:D6 A1:F1 B2:E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sample_data/metadata.xlsx
+++ b/sample_data/metadata.xlsx
@@ -488,7 +488,7 @@
       <c r="F3" t="str" xml:space="preserve">
         <v xml:space="preserve">{
                 "file_type": "csv",
-                "file_name": "bankloan1.csv",
+                "file_path": "bankloan1.csv",
 "bucket_name": "minimal-ai"
             }</v>
       </c>
@@ -556,12 +556,13 @@
         <v>filter_data</v>
       </c>
       <c r="E6" t="str">
-        <v>file</v>
+        <v>gs_file</v>
       </c>
       <c r="F6" t="str" xml:space="preserve">
         <v xml:space="preserve">{
                 "file_type": "csv",
-                "file_name": "sample_data/spark_ai_test.csv"
+                "file_path": "spark_ai_test",
+"bucket_name": "minimal-ai"
             }</v>
       </c>
     </row>
